--- a/data/trans_camb/IP1005-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1005-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 0,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>-1,16; 1,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,79</t>
+          <t>-1,79; 0,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,0</t>
+          <t>-2,03; 0,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 0,38</t>
+          <t>-1,35; 0,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 0,43</t>
+          <t>-1,0; 0,79</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>-69,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-68,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>-50,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>-3,9%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,48; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 252,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,04; 294,24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,02</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,97</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,2</t>
+          <t>-0,48; 0,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,2</t>
+          <t>-1,31; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,36</t>
+          <t>-0,23; 0,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,79</t>
+          <t>-0,23; 0,43</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-38,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-69,73%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-68,26%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-50,84%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,9%</t>
+          <t>12,99%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-76,48; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 252,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,04; 294,24</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1005-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1005-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,42</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,54</t>
+          <t>0,0; 2,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,32</t>
+          <t>0,0; 1,39</t>
         </is>
       </c>
     </row>
@@ -687,17 +687,17 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,18</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,83</t>
+          <t>-1,89; 0,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,97</t>
+          <t>-1,17; 1,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,2</t>
+          <t>-0,51; 1,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,2</t>
+          <t>-0,51; 1,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,36</t>
+          <t>-0,89; 0,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,79</t>
+          <t>-0,61; 1,09</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-38,1%</t>
+          <t>-67,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-69,73%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-68,26%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-50,84%</t>
+          <t>-30,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,9%</t>
+          <t>34,87%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,48; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 252,49</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,04; 294,24</t>
+          <t>-73,92; 860,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,19</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,79</t>
+          <t>-2,68; 0,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,0</t>
+          <t>-3,17; 0,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 0,38</t>
+          <t>-0,98; 0,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 0,43</t>
+          <t>-1,21; 0,42</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>-58,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-75,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>-11,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>-38,72%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 0,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 0,88</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 0,51</t>
+          <t>0,0; 1,04</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-34,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-22,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>52,61%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,2; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1198,28 +1198,192 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-89,34; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-83,3; 236,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,43; 407,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 0,27</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 0,81</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 0,39</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 0,48</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 0,22</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 0,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-34,16%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>89,61%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-11,12%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-22,72%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>52,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-73,29; 1036,64</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-96,84; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-87,31; 212,5</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-50,84; 448,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP1005-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1005-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,97</t>
+          <t>0,0; 2,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,39</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,25</t>
+          <t>-1,8; 0,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,61</t>
+          <t>-1,06; 1,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,27</t>
+          <t>-0,51; 1,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,45</t>
+          <t>-0,51; 1,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,5</t>
+          <t>-0,92; 0,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,09</t>
+          <t>-0,53; 0,94</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-73,92; 860,54</t>
+          <t>-81,79; 548,11</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,16</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,73</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,74</t>
+          <t>-3,03; 0,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,25</t>
+          <t>-3,26; 0,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,82</t>
+          <t>-1,01; 0,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,42</t>
+          <t>-1,29; 0,42</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,06</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,27</t>
+          <t>-0,53; 0,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 0,81</t>
+          <t>-0,21; 0,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,39</t>
+          <t>-0,48; 0,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,48</t>
+          <t>-0,43; 0,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,22</t>
+          <t>-0,39; 0,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 0,52</t>
+          <t>-0,2; 0,52</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-73,29; 1036,64</t>
+          <t>-66,95; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-96,84; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-87,31; 212,5</t>
+          <t>-85,06; 188,2</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-50,84; 448,35</t>
+          <t>-55,22; 380,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1005-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1005-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -606,17 +606,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,32</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
     </row>
@@ -682,17 +682,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-0,53</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>0,19</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,29</t>
+          <t>-0,51; 1,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,6</t>
+          <t>-0,51; 1,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,26</t>
+          <t>-1,82; 0,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,1</t>
+          <t>-1,05; 1,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,41</t>
+          <t>-0,86; 0,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,94</t>
+          <t>-0,62; 0,99</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>91,23%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>42,29%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-67,8%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>24,6%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>91,23%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>42,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-81,79; 548,11</t>
+          <t>-81,23; 750,4</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,43</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>0,34</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-2,65; 0,73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,56; 0,25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,0; 2,13</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,69</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,03; 0,43</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,25</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,65</t>
+          <t>-1,22; 0,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,42</t>
+          <t>-1,22; 0,45</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-58,33%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-75,25%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-58,33%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-75,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,41</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,04</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
     </row>
@@ -1150,17 +1150,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>-0,09</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0,25</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,27</t>
+          <t>-0,48; 0,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 0,82</t>
+          <t>-0,42; 0,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,41</t>
+          <t>-0,56; 0,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,51</t>
+          <t>-0,22; 0,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,21</t>
+          <t>-0,35; 0,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 0,52</t>
+          <t>-0,19; 0,51</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-11,12%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>-34,16%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>89,61%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-11,12%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>15,1%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-66,95; —</t>
+          <t>-89,34; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-68,2; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-85,06; 188,2</t>
+          <t>-83,3; 236,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-55,22; 380,09</t>
+          <t>-48,43; 407,83</t>
         </is>
       </c>
     </row>
